--- a/docs/todo/Projectplan.xlsx
+++ b/docs/todo/Projectplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viuser\Desktop\tmp\Itlap-Webshop\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viuser\Desktop\tmp\Itlap-Webshop\docs\todo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493E59EB-F13D-450F-B375-A13367C91176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC2FD3A-B411-4DD2-99E8-C2FCD05953BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
   <si>
     <t>Nr.</t>
   </si>
@@ -931,7 +931,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,8 +1066,12 @@
       <c r="H4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="K4" s="12" t="s">
         <v>17</v>
       </c>
